--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62443.7310150343</v>
+        <v>-64882.20411478117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.7556151465232</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>33.11783383250593</v>
       </c>
       <c r="F2" t="n">
-        <v>132.6419847229063</v>
+        <v>70.93933139426287</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>140.0560134358782</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.43736064133465</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>62.9289261800545</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>139.9388793417162</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>187.1766804654948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>2.379113942663878</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>92.62644846798877</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>108.816869201471</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>35.01469600560268</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.6383426943707</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>100.1755269486893</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,10 +1661,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>93.07916359105459</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>209.8270610998454</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>25.78734729249726</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>136.9649966249125</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892457</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.45472478221053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>115.7063133373731</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>141.5888089825044</v>
+        <v>122.4116053749664</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>59.31005804030097</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>191.9440058362632</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5005260950197</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.99884436925737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>105.8965430419533</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>223.6233581343926</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="V40" t="n">
-        <v>147.2606364488714</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,16 +3952,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>40.62253010341785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>44.95889092250177</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.169188758596</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C2" t="n">
-        <v>1657.203920933825</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="D2" t="n">
-        <v>1298.938222327075</v>
+        <v>884.2764146822267</v>
       </c>
       <c r="E2" t="n">
-        <v>913.1499697288302</v>
+        <v>850.824057275655</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4322,10 +4322,10 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265602</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995487</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758596</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.1279902937562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>623.1279902937562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0113508814204</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>473.0113508814204</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>473.0113508814204</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>305.3085142561393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541191</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335304</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335304</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372863</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.1279902937562</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754392</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.105239813981</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.83954120723</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>866.0512886089859</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3262.041249710126</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3262.041249710126</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3008.510772983962</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794326</v>
+        <v>2677.447885640391</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794326</v>
+        <v>2677.447885640391</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794326</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818514</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384.3315924698002</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V7" t="n">
-        <v>1083.386778235018</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W7" t="n">
-        <v>793.9696081980572</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="X7" t="n">
-        <v>565.9800573000399</v>
+        <v>963.8317579370578</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.9800573000399</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796274</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392158</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392158</v>
+        <v>936.9705155339559</v>
       </c>
       <c r="E8" t="n">
-        <v>167.0196863409715</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>160.0741855917681</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943749</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.740577577776</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.372197774137</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>869.6905094135312</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1876.273679552237</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1621.58919134635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.172021309389</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>187.8360202106533</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647265</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368197</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244839</v>
+        <v>658.7722159733504</v>
       </c>
       <c r="E19" t="n">
-        <v>481.4479471244839</v>
+        <v>510.8591223909573</v>
       </c>
       <c r="F19" t="n">
-        <v>481.4479471244839</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>314.2518478393638</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579361</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373474</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336514</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438496</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949663</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5741,25 +5741,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.33711846916</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.482284124065</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.880819147006</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307826</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028758</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>672.69086739054</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>524.7777738081469</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>377.8878263102365</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>210.6917270251164</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704552</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561022</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434716</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155647</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.921708803229</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015259</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434716</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155647</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>550.921708803229</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>403.0086152208358</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6652,19 +6652,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015259</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273905</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876693</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753335</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>282.8695714929404</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939068</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.5172766244844</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>335.9367143474486</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.19363748756659</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>186.0089474405548</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012279</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.88259428919179</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.633700730434</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.329716221311315</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>65.75554125013272</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.1299285698843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.58839950885074</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>257.6444250803515</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.845153664064782</v>
+        <v>24.02235727160274</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>86.11098998263029</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.76564955277399</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>32.92052192791157</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.5858089828374</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>39.52450498097792</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>62.89964020219836</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>73.85777223953468</v>
       </c>
       <c r="V40" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25840,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>245.5619442858263</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794692</v>
+        <v>298593.7657794694</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
         <v>322858.6398760026</v>
@@ -26326,34 +26326,34 @@
         <v>322858.6398760025</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760022</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="J2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760025</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760025</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052864</v>
+        <v>50238.95917052888</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
@@ -26439,25 +26439,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.80811184271</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1188323.879680046</v>
+        <v>-1188510.273068585</v>
       </c>
       <c r="C6" t="n">
         <v>127688.9245011262</v>
       </c>
       <c r="D6" t="n">
-        <v>127688.9245011259</v>
+        <v>127688.9245011258</v>
       </c>
       <c r="E6" t="n">
-        <v>-117283.1598671024</v>
+        <v>-117317.8977925381</v>
       </c>
       <c r="F6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="G6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="H6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="I6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148169</v>
       </c>
       <c r="J6" t="n">
-        <v>-9401.900457025011</v>
+        <v>-9436.638382460616</v>
       </c>
       <c r="K6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148169</v>
       </c>
       <c r="L6" t="n">
-        <v>208129.3019402525</v>
+        <v>208094.5640148167</v>
       </c>
       <c r="M6" t="n">
-        <v>123074.2740047408</v>
+        <v>123039.5360793051</v>
       </c>
       <c r="N6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="O6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="P6" t="n">
-        <v>208129.3019402528</v>
+        <v>208094.5640148168</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>348.8125362397558</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2340610188051</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>4.69900147844254</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4386851003768</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>46.25883560812135</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>112.1987639821118</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>31.40797288659996</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>379.5512561295979</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>318.2952771854647</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>177.3949690041418</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>190.6949593834345</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>301.9817606876392</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>452.3405299254384</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>360.3952288121454</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>434.1786358382023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>729.0844763571693</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>345.6771571865338</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>548.8125296967487</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O36" t="n">
-        <v>483.3274636075158</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391492</v>
+        <v>658.2124561388958</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>218.942823359377</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>223.6976288294628</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>508.8976500257889</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.9999866016177</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,16 +35732,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>310.2064960034201</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5537898377865</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>291.5823913937579</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>586.9504424351509</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>207.1227774066596</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>414.8381222824185</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O36" t="n">
-        <v>340.7312191630714</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558158</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>81.10138438501797</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>81.10138438501835</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>366.7636161037706</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
